--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>產品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,22 @@
   </si>
   <si>
     <t>康寶藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -545,164 +561,257 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>產品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>20$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coffee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -561,12 +581,12 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -574,7 +594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -582,7 +602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -590,7 +610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -598,15 +618,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -622,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,15 +661,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -662,7 +688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -678,7 +704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -686,7 +712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -694,15 +720,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -710,7 +739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -718,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -726,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -734,7 +763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -742,15 +771,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -758,7 +790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -766,7 +798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -774,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -782,7 +814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -790,7 +822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -798,7 +830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -806,12 +838,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
